--- a/cv/codingIV_types.xlsx
+++ b/cv/codingIV_types.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>codility</t>
   </si>
@@ -96,21 +96,12 @@
     <t>any</t>
   </si>
   <si>
-    <t>UBS;SIG</t>
-  </si>
-  <si>
     <t>LiqNet; CVA</t>
   </si>
   <si>
     <t>Swing; Citadel; BBG</t>
   </si>
   <si>
-    <t>LG2 they can tell U</t>
-  </si>
-  <si>
-    <t>ECT/syntax</t>
-  </si>
-  <si>
     <t>CS algo #QQ</t>
   </si>
   <si>
@@ -138,20 +129,42 @@
     <t>practice:</t>
   </si>
   <si>
-    <t>QQ xx</t>
-  </si>
-  <si>
     <t>must</t>
   </si>
   <si>
-    <t>LG2 but syntax needed</t>
+    <t>syntax</t>
+  </si>
+  <si>
+    <t>ECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG2  </t>
+  </si>
+  <si>
+    <t>They can tell U</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>QQ xx better by 
+reading, not practice</t>
+  </si>
+  <si>
+    <t>UBS;SIG; lab49 #rare</t>
+  </si>
+  <si>
+    <t>thr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +172,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,26 +217,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,52 +600,58 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,17 +665,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,91 +690,101 @@
         <v>8</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
+      <c r="J7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -705,35 +798,44 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>40</v>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G2:I2"/>
+  <mergeCells count="4">
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/cv/codingIV_types.xlsx
+++ b/cv/codingIV_types.xlsx
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -268,15 +268,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,7 +281,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,56 +604,59 @@
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -665,18 +670,19 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -690,18 +696,19 @@
         <v>8</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -717,20 +724,21 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,20 +754,21 @@
       <c r="F7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -775,16 +784,17 @@
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -800,42 +810,44 @@
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>6</v>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/cv/codingIV_types.xlsx
+++ b/cv/codingIV_types.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>codility</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>webex</t>
-  </si>
-  <si>
-    <t>onsite coding</t>
   </si>
   <si>
     <t>onsite paper</t>
@@ -154,10 +151,35 @@
 reading, not practice</t>
   </si>
   <si>
-    <t>UBS;SIG; lab49 #rare</t>
-  </si>
-  <si>
     <t>thr</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>rating outside</t>
+  </si>
+  <si>
+    <t>rating on WalSt</t>
+  </si>
+  <si>
+    <t>onsite coding
+# rare</t>
+  </si>
+  <si>
+    <t>UBS;SIG; lab49</t>
   </si>
 </sst>
 </file>
@@ -258,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -272,6 +294,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,8 +311,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K10"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +628,7 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0.5703125" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -618,42 +643,42 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -664,22 +689,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -696,16 +721,16 @@
         <v>8</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="13"/>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -722,20 +747,20 @@
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -743,23 +768,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>7</v>
@@ -768,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -778,17 +803,17 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
@@ -796,7 +821,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -805,17 +830,17 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>7</v>
@@ -826,20 +851,56 @@
     </row>
     <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>44</v>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/cv/codingIV_types.xlsx
+++ b/cv/codingIV_types.xlsx
@@ -186,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -296,6 +303,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,7 +321,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,7 +633,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,12 +659,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -696,10 +711,10 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
@@ -722,10 +737,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,10 +825,10 @@
         <v>53</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
@@ -868,7 +883,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="8"/>
@@ -886,20 +901,20 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="18" t="s">
         <v>48</v>
       </c>
     </row>

--- a/cv/codingIV_types.xlsx
+++ b/cv/codingIV_types.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>codility</t>
   </si>
@@ -30,9 +30,6 @@
     <t>critical</t>
   </si>
   <si>
-    <t>whiteboard</t>
-  </si>
-  <si>
     <t>30m</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>webex</t>
   </si>
   <si>
-    <t>onsite paper</t>
-  </si>
-  <si>
     <t>paper</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>FB style</t>
   </si>
   <si>
-    <t>skill</t>
-  </si>
-  <si>
     <t>compiler?</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>Swing; Citadel; BBG</t>
   </si>
   <si>
-    <t>CS algo #QQ</t>
-  </si>
-  <si>
     <t>nickname</t>
   </si>
   <si>
@@ -111,22 +99,13 @@
     <t>site</t>
   </si>
   <si>
-    <t>hour</t>
-  </si>
-  <si>
     <t>BP</t>
   </si>
   <si>
-    <t>QQ sometimes needed</t>
-  </si>
-  <si>
     <t>QQ often needed</t>
   </si>
   <si>
     <t>practice:</t>
-  </si>
-  <si>
-    <t>must</t>
   </si>
   <si>
     <t>syntax</t>
@@ -163,9 +142,6 @@
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">C </t>
-  </si>
-  <si>
     <t>B+</t>
   </si>
   <si>
@@ -175,18 +151,39 @@
     <t>rating on WalSt</t>
   </si>
   <si>
-    <t>onsite coding
-# rare</t>
-  </si>
-  <si>
-    <t>UBS;SIG; lab49</t>
+    <t>#hour</t>
+  </si>
+  <si>
+    <t>(virtual)
+whiteboard</t>
+  </si>
+  <si>
+    <t>CVA style #rare</t>
+  </si>
+  <si>
+    <t>RBC;UBS;SIG; lab49</t>
+  </si>
+  <si>
+    <t>SIG style</t>
+  </si>
+  <si>
+    <t>CS-algo #QQ</t>
+  </si>
+  <si>
+    <t>4 skill</t>
+  </si>
+  <si>
+    <t>ez</t>
+  </si>
+  <si>
+    <t>slow improvement; no alternative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +201,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,21 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -328,6 +318,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +638,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,17 +646,17 @@
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0.5703125" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -659,38 +664,38 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="H2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>27</v>
@@ -704,218 +709,218 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
+      <c r="I4" s="15"/>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="15"/>
       <c r="J5" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F11" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>48</v>
+      <c r="F12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/cv/codingIV_types.xlsx
+++ b/cv/codingIV_types.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
-  <si>
-    <t>codility</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t xml:space="preserve">remote </t>
   </si>
@@ -33,9 +30,6 @@
     <t>30m</t>
   </si>
   <si>
-    <t>main focus</t>
-  </si>
-  <si>
     <t>imp</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Swing; Citadel; BBG</t>
   </si>
   <si>
-    <t>nickname</t>
-  </si>
-  <si>
     <t>examples</t>
   </si>
   <si>
@@ -112,12 +103,6 @@
   </si>
   <si>
     <t>ECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG2  </t>
-  </si>
-  <si>
-    <t>They can tell U</t>
   </si>
   <si>
     <t>no</t>
@@ -154,13 +139,6 @@
     <t>#hour</t>
   </si>
   <si>
-    <t>(virtual)
-whiteboard</t>
-  </si>
-  <si>
-    <t>CVA style #rare</t>
-  </si>
-  <si>
     <t>RBC;UBS;SIG; lab49</t>
   </si>
   <si>
@@ -177,13 +155,43 @@
   </si>
   <si>
     <t>slow improvement; no alternative</t>
+  </si>
+  <si>
+    <t>importance ⇘</t>
+  </si>
+  <si>
+    <t>nickname #rank by frq</t>
+  </si>
+  <si>
+    <t>short codility</t>
+  </si>
+  <si>
+    <t>CVA style</t>
+  </si>
+  <si>
+    <t>(virtual)whiteboard</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#2 usually ez</t>
+  </si>
+  <si>
+    <t>#3 They can tell U</t>
+  </si>
+  <si>
+    <t>#1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +221,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -292,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,21 +333,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,19 +656,19 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
@@ -662,272 +680,276 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="15"/>
+      <c r="H4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="18"/>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="15"/>
+      <c r="H5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="18"/>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F12" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/codingIV_types.xlsx
+++ b/cv/codingIV_types.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t xml:space="preserve">remote </t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>QQ often needed</t>
-  </si>
-  <si>
-    <t>practice:</t>
   </si>
   <si>
     <t>syntax</t>
@@ -154,9 +151,6 @@
     <t>ez</t>
   </si>
   <si>
-    <t>slow improvement; no alternative</t>
-  </si>
-  <si>
     <t>importance ⇘</t>
   </si>
   <si>
@@ -185,31 +179,43 @@
   </si>
   <si>
     <t>#1</t>
+  </si>
+  <si>
+    <t>QQ sometimes needed</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>no quick effective drill</t>
+  </si>
+  <si>
+    <t>drill:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,13 +223,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -306,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -333,6 +339,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,9 +359,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,42 +668,42 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.625" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="3" customHeight="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="19" t="s">
-        <v>46</v>
+      <c r="F2" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="2:11" s="3" customFormat="1">
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
@@ -699,29 +711,29 @@
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,22 +744,24 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="18"/>
+      <c r="H4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -762,20 +776,20 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -787,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="6" t="s">
@@ -797,13 +811,13 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,16 +828,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
@@ -831,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,19 +863,19 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -872,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -891,66 +905,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="27">
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="F11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="F12" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -963,7 +976,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -975,7 +988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cv/codingIV_types.xlsx
+++ b/cv/codingIV_types.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t xml:space="preserve">remote </t>
   </si>
@@ -127,12 +127,6 @@
     <t>B+</t>
   </si>
   <si>
-    <t>rating outside</t>
-  </si>
-  <si>
-    <t>rating on WalSt</t>
-  </si>
-  <si>
     <t>#hour</t>
   </si>
   <si>
@@ -191,31 +185,40 @@
   </si>
   <si>
     <t>drill:</t>
+  </si>
+  <si>
+    <t>%%rating among  ibank candidates</t>
+  </si>
+  <si>
+    <t>%%rating outside</t>
+  </si>
+  <si>
+    <t>B-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,13 +226,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,6 +346,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,12 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,42 +671,42 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.75" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.625" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="3" customHeight="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="2:11" s="3" customFormat="1">
+      <c r="H2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
@@ -711,10 +714,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>22</v>
@@ -727,13 +730,13 @@
         <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -744,24 +747,24 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="16" t="s">
         <v>53</v>
       </c>
+      <c r="I4" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -776,20 +779,20 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -811,13 +814,13 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,16 +831,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
@@ -845,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,19 +866,19 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -886,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -905,16 +908,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="27">
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
@@ -923,9 +926,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="1" t="s">
@@ -941,13 +944,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F12" s="10" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>34</v>
@@ -976,7 +979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -988,7 +991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
